--- a/biology/Médecine/1355_en_santé_et_médecine/1355_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1355_en_santé_et_médecine/1355_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1355_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1355_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1355 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1355_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1355_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19 mai : L'empereur Charles IV élève l'université de Pérouse, en Ombrie, au rang d'université impériale, confirmant la bulle du pape Clément V qui a créé cette université en 1308 et celle de Jean XXII qui lui a accordé en 1321 le privilège de conférer les grades en médecine[1].
-L'empereur Charles IV confirme la bulle papale qui a élevé l'université de Pise, en Toscane, au rang de studium generale comprenant toutes les facultés, y compris, donc, celle de médecine[2].
-Construction de l'hôpital de l'Annonciation (Spedale dell'Annunziata) à Gaète dans le Latium en Italie[3].
-Refondation de l'hôpital Saint-Jean-Baptiste (Hospital of St. John Baptist) à Bicester dans le comté d'Oxford par Nicholas Jurdan[4].
-Humbert II, dernier dauphin de Viennois, renonce aux dispositions qu'il avait prises en 1347 en vue de la création d'un hôpital à Saint-Marcellin, établissement qui ne verra le jour qu'au début du XVIe siècle, fondé par la municipalité[5].
-Fondation d'un petite hôpital à Aken, sur l'Elbe, par les chevaliers teutoniques[6].
-Première mention d'un apothicaire à Bordeaux en Guyenne, dans un registre des comptes de l'archevêché[7].
-La confrérie des orfèvres parisiens offre le repas de Pâques aux pauvres de l'Hôtel-Dieu, soit, à chacun, un pain, du potage, une mesure de vin, un craquelin, deux œufs, un morceau de bouilli, un morceau de veau rôti et, au dernier service, quatre pièces de métier et six florins[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19 mai : L'empereur Charles IV élève l'université de Pérouse, en Ombrie, au rang d'université impériale, confirmant la bulle du pape Clément V qui a créé cette université en 1308 et celle de Jean XXII qui lui a accordé en 1321 le privilège de conférer les grades en médecine.
+L'empereur Charles IV confirme la bulle papale qui a élevé l'université de Pise, en Toscane, au rang de studium generale comprenant toutes les facultés, y compris, donc, celle de médecine.
+Construction de l'hôpital de l'Annonciation (Spedale dell'Annunziata) à Gaète dans le Latium en Italie.
+Refondation de l'hôpital Saint-Jean-Baptiste (Hospital of St. John Baptist) à Bicester dans le comté d'Oxford par Nicholas Jurdan.
+Humbert II, dernier dauphin de Viennois, renonce aux dispositions qu'il avait prises en 1347 en vue de la création d'un hôpital à Saint-Marcellin, établissement qui ne verra le jour qu'au début du XVIe siècle, fondé par la municipalité.
+Fondation d'un petite hôpital à Aken, sur l'Elbe, par les chevaliers teutoniques.
+Première mention d'un apothicaire à Bordeaux en Guyenne, dans un registre des comptes de l'archevêché.
+La confrérie des orfèvres parisiens offre le repas de Pâques aux pauvres de l'Hôtel-Dieu, soit, à chacun, un pain, du potage, une mesure de vin, un craquelin, deux œufs, un morceau de bouilli, un morceau de veau rôti et, au dernier service, quatre pièces de métier et six florins.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1355_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1355_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mars-août : Pétrarque rédige ses Invectives contre un médecin[9], que « Guy de Chauliac est fortement soupçonné [de lui] avoir fourni l'occasion d'écrire[10] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mars-août : Pétrarque rédige ses Invectives contre un médecin, que « Guy de Chauliac est fortement soupçonné [de lui] avoir fourni l'occasion d'écrire ».</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1355_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1355_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ishtori haFarhi (né en 1280), géographe et médecin tossafiste.</t>
         </is>
